--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,191 +50,234 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>255.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算(Client)节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算(Client)节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-cug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8核16线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU主频(GHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvidia-smi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lscpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lspci | grep -i nvidia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quadro RTX 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Gb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU核心(个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geforce RTX 2070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3800X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9 (Max), 2.2 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群调度器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slurm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6核12线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制节点(Host Node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 2700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 (Max), 1.55 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>netmask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lijian-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>broadcast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算(Client)节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算(Client)节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijian-cug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hostname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8核16线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU主频(GHz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUDA版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvidia-smi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lscpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lspci | grep -i nvidia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quadro RTX 4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 Gb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU核心(个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDDR6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geforce RTX 2070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 3800X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9 (Max), 2.2 (Min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X86_64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 Kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1Gbps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intel网卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群调度器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slurm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行文件系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>putty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6核12线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制节点(Host Node)</t>
+  </si>
+  <si>
+    <t>控制节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp40s0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,316 +634,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
+    <row r="16" spans="1:12">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2304</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2304</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
-        <v>12</v>
+        <v>2304</v>
       </c>
       <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>2304</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2304</v>
+      </c>
       <c r="E18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Geforce RTX 2070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMD Ryzen 7 3800X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,46 @@
   </si>
   <si>
     <t>enp40s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geforce GT 710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 (Max), 2.2 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 Mb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +673,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -653,7 +689,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -665,16 +701,16 @@
         <v>15</v>
       </c>
       <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
         <v>62</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>63</v>
       </c>
-      <c r="J1" t="s">
-        <v>64</v>
-      </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -685,9 +721,11 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -698,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -709,9 +747,11 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
@@ -729,14 +769,16 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -744,30 +786,32 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -780,12 +824,14 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" t="s">
         <v>23</v>
       </c>
@@ -801,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -809,62 +855,70 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="1"/>
@@ -882,7 +936,7 @@
         <v>25</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -896,7 +950,7 @@
         <v>2304</v>
       </c>
       <c r="D18" s="1">
-        <v>2304</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -907,12 +961,14 @@
         <v>21</v>
       </c>
       <c r="B19" s="1">
-        <v>12</v>
+        <v>10.1</v>
       </c>
       <c r="C19" s="1">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10.1</v>
+      </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
@@ -928,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -942,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -952,30 +1008,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -22,298 +22,298 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ifconfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>route -n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eno1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算(Client)节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算(Client)节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-cug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU核心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8核16线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU主频(GHz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUDA版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvidia-smi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lscpu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lspci | grep -i nvidia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quadro RTX 4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Gb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU核心(个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 3800X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9 (Max), 2.2 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X86_64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gbps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群调度器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slurm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行文件系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>putty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6核12线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制节点(Host Node)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 2700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2 (Max), 1.55 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>netmask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broadcast</t>
+  </si>
+  <si>
+    <t>控制节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算节点1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算节点2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp40s0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geforce GT 710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Gb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD Ryzen 5 5600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5 (Max), 2.2 (Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>192.168.1.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifconfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>route -n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网卡接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eno1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>255.255.255.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算(Client)节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算(Client)节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijian-cug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hostname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU核心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8核16线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU主频(GHz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUDA版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvidia-smi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lscpu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lspci | grep -i nvidia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quadro RTX 4000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 Gb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU核心(个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDDR6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 3800X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.9 (Max), 2.2 (Min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>架构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X86_64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>256 Kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1Gbps</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intel网卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群调度器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slurm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行文件系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>putty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6核12线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制节点(Host Node)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 2700</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2 (Max), 1.55 (Min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64 Kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>512 Kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>netmask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijian-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broadcast</t>
-  </si>
-  <si>
-    <t>控制节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算节点1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算节点2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp40s0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geforce GT 710</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1Gb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GDDR5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lijian-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 5600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5 (Max), 2.2 (Min)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192 Kb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3Mb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32 Mb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,7 +673,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -689,54 +689,54 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>61</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" t="s">
-        <v>63</v>
-      </c>
       <c r="L1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -744,74 +744,74 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -821,103 +821,103 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -927,21 +927,21 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1">
         <v>2304</v>
@@ -953,12 +953,12 @@
         <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>10.1</v>
@@ -970,35 +970,35 @@
         <v>10.1</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1008,30 +1008,30 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC0627-9C96-47C6-B5BC-9D07C530B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>IP地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,14 +315,50 @@
   </si>
   <si>
     <t>192.168.1.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算(Client)节点3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lijian-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel 12th Gen i5-12409F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9(Max), 0.8(Min)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>288 Kb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 Mb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gefore RTX 2070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.78</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +369,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -366,7 +411,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,17 +421,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,7 +487,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,9 +519,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,6 +571,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,25 +764,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>50</v>
       </c>
@@ -698,22 +794,25 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>60</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>61</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>62</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -726,20 +825,23 @@
       <c r="D2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -752,14 +854,17 @@
       <c r="D3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -772,11 +877,14 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -789,18 +897,22 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -813,13 +925,17 @@
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -832,11 +948,14 @@
       <c r="D9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -849,8 +968,11 @@
       <c r="D10" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -863,8 +985,11 @@
       <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -877,8 +1002,11 @@
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -891,8 +1019,11 @@
       <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -905,8 +1036,11 @@
       <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -919,13 +1053,17 @@
       <c r="D15" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="E15" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -938,8 +1076,11 @@
       <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -952,11 +1093,14 @@
       <c r="D18" s="1">
         <v>192</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1">
+        <v>2304</v>
+      </c>
+      <c r="F18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -969,11 +1113,14 @@
       <c r="D19" s="1">
         <v>10.1</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="F19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -986,8 +1133,11 @@
       <c r="D20" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1000,13 +1150,17 @@
       <c r="D21" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1015,8 +1169,9 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1025,8 +1180,9 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1035,6 +1191,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1047,12 +1204,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1061,12 +1218,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC0627-9C96-47C6-B5BC-9D07C530B177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A7F31-F0F2-4D64-A194-AFEE155B01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.78</t>
+    <t>192.168.1.246</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,10 +421,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -905,11 +905,11 @@
       <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
       <c r="D17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>82</v>
       </c>
     </row>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212A7F31-F0F2-4D64-A194-AFEE155B01D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB02D2-3138-4A08-98D3-49B0F42180AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.1.225</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AMD Ryzen 5 5600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>192.168.1.246</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.80</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -768,7 +768,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
@@ -826,7 +826,7 @@
         <v>67</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -846,16 +846,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -946,10 +946,10 @@
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -983,10 +983,10 @@
         <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1017,10 +1017,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1034,10 +1034,10 @@
         <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1051,10 +1051,10 @@
         <v>55</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
         <v>64</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCB02D2-3138-4A08-98D3-49B0F42180AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF86A02-4578-45C8-B5F0-723DE7A1F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
+++ b/HPC/Ubuntu20.04-Cluster/我的个人集群配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF86A02-4578-45C8-B5F0-723DE7A1F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F77E69-D115-47E0-90B8-B255AC7D38BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
